--- a/pred_ohlcv/54_21/2020-01-12 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 DAC ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-2075807.490399999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1812718.144299999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1867657.133499999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1830130.507799999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1702302.306799999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1622083.655299999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1555771.375299999</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1555771.375299999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1583365.281999999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1544062.092399999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1544062.092399999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1573134.866499999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1526542.179899999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1565377.649299999</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1612195.774999999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1562981.137799999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1582183.212599999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1529358.895599999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1569727.311599999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1616907.455399999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1549609.070699999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1593318.016499999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1570845.549499999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1570845.549499999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1521028.185299999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1521028.185299999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1482112.155699999</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1520739.580699999</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1475277.162099999</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1435147.358299999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1385158.609699999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1342620.981899999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1373101.091299999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1415467.906999999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1371524.989999999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1338641.831599999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1381396.068499999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1422478.987299999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1374667.130399999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1419383.436399999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1388901.015799999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1429791.534599999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1389480.672099999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1431879.278999999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1563894.681499999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1609596.656099999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1575826.281799999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1531687.496899999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1482225.006699999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1525955.736399999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1481279.883999999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1481279.883999999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1526529.435599999</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1572674.319399999</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1530908.408899999</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1567395.385799999</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1592340.177599999</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1636827.965299999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1604172.123199999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1604172.123199999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1564794.751699999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1602915.933199999</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1602915.933199999</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1602915.933199999</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1643786.640399999</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1603710.257199999</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1639355.530499999</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1602471.458199999</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1602471.458199999</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1640495.525399999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1680984.476599999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1633133.188699999</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1680671.641399999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1730143.162199999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1730143.162199999</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1687329.701699999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1695787.753199999</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1732831.884699999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1662062.591199999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1757853.078599999</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1801996.220699999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1759826.965599999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1759826.965599999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1805621.058899999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1767910.606899999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1725692.547099999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1748598.199299999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1687790.855299999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1712287.809099999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1657017.625699999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1728466.878599999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1772994.782499999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1753787.438199999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1801133.460399999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1838218.504199999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1838218.504199999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1796465.709499999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1819487.137899999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1774792.749799999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1807111.186899999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1850170.496999999</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1921374.412299999</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1956496.078099999</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1920111.713699999</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1955487.641199999</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1920622.210999999</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1920622.210999999</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1880418.913299999</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2116147.947699999</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2070258.445699999</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2106881.714199999</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2065925.373799999</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2100617.097799999</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2055731.660199999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2089572.944699999</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2049087.909299999</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2080645.038699999</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2036862.680599999</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2072374.745699999</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2031846.069199999</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1996079.757799999</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2062444.280399999</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2101914.676299999</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-2049184.168299999</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2097679.444699998</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2067294.421399998</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2088333.518799999</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1995671.907699999</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1953570.890199999</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2066047.589199999</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2098627.053899999</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2068521.948299998</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2081455.080499998</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2031903.491699998</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2072396.388699998</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2035029.181499998</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1998362.455499998</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1993080.210699998</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1978170.036099998</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1823708.267460857</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1810851.137760857</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1765079.848760857</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1813059.332060857</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1851279.180560857</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1336057.287076848</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1297503.424576848</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1333579.203676848</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1275206.109276847</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1235817.103976847</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1273785.267076847</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1224726.964376847</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1178529.894376847</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1227008.314476847</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1150449.461176847</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1106829.648176847</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1106829.648176847</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1059469.727076847</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1104752.496476847</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1143403.147476847</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1114305.252076847</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1159514.999076847</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1210558.886376847</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1255341.238176847</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1226451.587976847</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1285329.797376847</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1238782.007176847</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1283416.440876847</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1324058.372876847</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1288859.002876847</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1337066.684176847</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1337066.684176847</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1366631.899776847</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1366631.899776847</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1300013.385576847</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1281855.988476847</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1323400.769976847</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1271068.180276847</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1225142.857676847</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1193406.700276847</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1234182.201876848</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1283508.999576848</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1312571.330976848</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1274209.554376848</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1317632.297676848</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1262155.745576848</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1228968.341276848</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1271964.345276847</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1224417.934876848</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1174230.366076848</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1240296.576476848</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1196353.309676847</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1196353.309676847</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1237650.627876848</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1197309.428976848</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1248666.318476848</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1177248.631476848</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1221066.380376848</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1185974.507776848</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1261890.197176848</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1248257.325276848</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1198640.797276848</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1155866.050276848</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1199204.227076848</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1199204.227076848</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1236137.649676848</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1210445.491276848</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1226178.038376848</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1184705.204176848</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1142425.825676848</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1173149.357976848</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1138186.344076848</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1180791.208876848</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1225142.995176848</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1189650.779576848</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1143498.117276848</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1095027.083676848</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1130037.417176848</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1130037.417176848</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1089263.166676848</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1136112.813676848</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1058359.539276848</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1008382.151376848</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1051016.125276848</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1012975.251476848</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1012975.251476848</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1038471.807076848</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1001852.950876848</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1042777.816076848</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-999821.0758768482</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1034324.635676848</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1293318.483676848</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1339146.492176848</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1301202.559576848</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1346568.962476848</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1323053.548176848</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1372286.521176848</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1334275.808376848</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1381943.478076848</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1335842.845276848</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1369110.625976848</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1328431.583876848</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1359330.583576848</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1399921.133276848</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1383064.814476848</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1438083.818176848</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1487614.695876848</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1487614.695876848</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1518022.261076848</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1479910.360476848</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1529415.007176848</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1503394.489076848</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1557906.248676848</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1514084.322376848</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1514084.322376848</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1543049.522276848</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1537266.477076848</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1371574.379276848</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1421839.958076848</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1437286.966476848</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1437286.966476848</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1394027.874876848</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1357982.626776848</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1405305.848776848</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1455396.240676848</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1413942.051176848</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1456623.869676848</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1416678.879776848</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1416678.879776848</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1458335.677776848</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1458335.677776848</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1423379.409076848</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1438317.766776848</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1401200.075776848</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1358943.481276848</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1407120.979576848</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1449650.559276849</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1399980.782476848</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1443340.577776848</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1424955.777276848</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1470081.621076848</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1506963.849576848</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1467390.650076848</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1402207.976376848</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1714749.845176848</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-2017333.013576848</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2071233.077776848</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-2069263.647176848</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-2016723.114676849</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-2057137.255476848</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2012614.064176848</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2062137.910776848</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2024314.430576848</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2086312.830676848</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2045998.573076848</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1494216.072360216</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1624067.415360216</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1599969.990160216</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1657603.206360216</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1623286.040760216</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1672591.878460216</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1625315.144360216</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1656555.135660216</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1718488.402560216</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1694077.151060216</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1731789.863860216</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1673673.671860216</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1703144.308460216</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1763640.801760216</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-1665336.456560216</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1613922.066460216</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1657514.936460217</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1714551.068460217</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1731747.430760216</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1777980.342960216</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1794022.962260216</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1845457.714760216</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1813860.930660216</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1777561.947460216</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1823599.670160216</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1773387.336860216</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1748116.495960216</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1685428.083760216</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1726134.267060216</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1741239.827560216</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1785906.232860216</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-1731409.527760216</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-1688017.131960216</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-1647221.382460216</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-1673545.096260216</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1716246.498160216</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-1751320.577960216</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-1714956.889360216</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1736433.715060216</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-1785689.670660216</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1755645.193460216</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1712869.460260216</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1733688.596660216</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1992097.531060216</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-1992097.531060216</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-1864108.916660216</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-1783518.607660216</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1602769.606560216</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-3261356.326760216</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-3309528.533060216</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-3354034.489760216</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-3354034.489760216</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-3598689.609260216</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-3636793.287560216</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-3636793.287560216</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-3611429.826960216</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-3611233.826960216</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-3610789.826960216</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-3498838.826960216</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-3472138.359260216</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-3472138.359260216</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-3472138.359260216</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-3423159.550560216</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-3479102.167560216</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-3450026.964860216</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-3410056.921760216</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-3463139.991660216</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-3498139.991660216</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-3543132.804760216</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-3543132.804760216</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-3543132.804760216</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-3543132.804760216</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-3523016.107460216</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-3748099.952560216</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-3748099.952560216</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-3701541.062360216</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-3739474.620360217</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-3703040.273560217</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-3762700.087060217</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-3745815.742960217</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-3788318.994160217</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-3770007.548860217</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-3722951.530460217</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-3775964.943860217</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-3719693.010660217</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-3689661.230660217</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-3731110.483660217</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-3769800.640660217</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-3790629.171860218</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-3760474.102660218</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-3709070.775560218</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-3709070.775560218</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-3751383.201560218</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-3820146.744260218</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-3769829.953960218</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-3858887.460060218</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-3899123.874060218</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-3852786.105860218</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-3797280.796760218</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-3797280.796760218</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-3882366.776760218</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-3825952.067560218</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-3868533.575760218</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-3845811.495560218</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-3890344.973560218</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-3843321.485860218</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-3887712.092560218</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-4106711.870760218</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-3953638.022260218</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-3953638.022260218</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-4141368.793460218</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-4141368.793460218</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-4084745.573960218</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-4084745.573960218</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-4121274.769660218</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-4080762.585960218</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-4035441.541960218</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-4035441.541960218</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-3650557.383360217</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-3650557.383360217</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-3571910.708560217</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-3624545.249260217</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-3668947.286460217</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-3668947.286460217</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-3717227.958060217</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-3670677.095060217</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-3670677.095060217</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-3670677.095060217</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-3743747.645360217</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-3691556.055660218</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-3738044.797960218</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-3778512.665060217</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-3729396.860560217</v>
       </c>
       <c r="H759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-3757492.711160217</v>
       </c>
       <c r="H760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-3757492.711160217</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-3715662.629760217</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-3753924.207860217</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-3753924.207860217</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-3735154.546560218</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-3796106.854560218</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-3756342.732860218</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-3794766.247960218</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-3794766.247960218</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-3770579.541060218</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-3770579.541060218</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-3734660.298860217</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-3700365.378860218</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-3700365.378860218</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-3666812.817560217</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-3706629.739060218</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-3778923.968860217</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-3825179.238460218</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-3825179.238460218</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-3825179.238460218</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-3825179.238460218</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-3788466.709460218</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-3735528.304160217</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-3689028.316960217</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-3730178.613160218</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-3684952.139660218</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-3717978.021860218</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-3699886.631360217</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-3764846.481760217</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-3748683.657760217</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-3778197.451460217</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-3827492.827160217</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-3870431.275760218</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-3846678.956160218</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-3895044.228460217</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-4674404.122560217</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-4674404.122560217</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-4626185.725260217</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-4580604.629060217</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-4537679.898360217</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-4576405.595660217</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-4531778.252260217</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-4573551.773560218</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-4573551.773560218</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-4522801.534860218</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-4468856.869460218</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-4422640.701760218</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-4443164.043860218</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-4403810.893360217</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-4373934.847360217</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-4420703.771660217</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-4378031.608960217</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-4449391.539660217</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-4418189.005560217</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-4470479.250560218</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-5420629.470960218</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-5465192.174260218</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-5414992.454560217</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-5378277.693860217</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-5378277.693860217</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-5400826.378260217</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-5357071.725560216</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-5357071.725560216</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-5402890.572660216</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-5450413.687360216</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-5406618.184560216</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-5406618.184560216</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-5406618.184560216</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-5406618.184560216</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-5406618.184560216</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-5368313.508060216</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-5403532.637160216</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-5403532.637160216</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-5364404.227560216</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-5407968.691560215</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-5407968.691560215</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-5407968.691560215</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-5448122.600160215</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-5403327.011760215</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-5403327.011760215</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-5460766.081960215</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-5460766.081960215</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-5460766.081960215</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-5460766.081960215</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-5441432.856560215</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-5441432.856560215</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-5367517.685460215</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-5324835.526960216</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-5366289.287860216</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-5325463.954560216</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-5272785.989660216</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-5272785.989660216</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-5207190.545360216</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-5238881.688660216</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-5277781.513760216</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-5324667.023160215</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-5282798.839260216</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-5447109.996360216</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-5420158.949960216</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-5382858.944760216</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-5344157.782760217</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-5183356.975860217</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-5267537.597260216</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-5253813.469260216</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-5262731.356960216</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-5308015.927760215</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-5270741.949460216</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-5322879.548960215</v>
       </c>
       <c r="H877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-5322879.548960215</v>
       </c>
       <c r="H878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-5272396.385760215</v>
       </c>
       <c r="H879">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-5379183.424160215</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-5335595.432960215</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-5287799.166760215</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-5608430.726060214</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-5536214.738560215</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-5486835.306260214</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-5469407.831260215</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-5509430.271760214</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-5465334.381760214</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-5417364.722760214</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-5458394.075460214</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-5414801.433660214</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-5467811.640560213</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-5447589.845960214</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-5484646.724960214</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-5526027.175160213</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-5567527.183360213</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-5567527.183360213</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-5526748.071660213</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-5526748.071660213</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-5526748.071660213</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-5507314.055660213</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-5507314.055660213</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-5557786.576260214</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-5557786.576260214</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-5513559.260660213</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-5561727.549760213</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-5561727.549760213</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-5487180.289560213</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-5573306.077060212</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-5495928.993960212</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-5577461.922960212</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-5517773.623160212</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-5553550.408760212</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-5507656.430560213</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-5550008.433460212</v>
       </c>
       <c r="H915">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-5514471.011260212</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-5562624.923360213</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-5600322.069360212</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-5580112.188560212</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-5661922.245160212</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-5687832.074660212</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-5644697.114760212</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-5623846.762860212</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-5640568.092860212</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-5640568.092860212</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-5706465.114760212</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-5706465.114760212</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-5384773.266360212</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-5350433.732460212</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-5373353.699260212</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-5373353.699260212</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-5395187.183560211</v>
       </c>
       <c r="H959">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-5395187.183560211</v>
       </c>
       <c r="H960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-5440824.732060211</v>
       </c>
       <c r="H961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-5416375.873960211</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-5377865.814060211</v>
       </c>
       <c r="H963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-5416879.530560211</v>
       </c>
       <c r="H964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-5416879.530560211</v>
       </c>
       <c r="H965">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-5378781.905260211</v>
       </c>
       <c r="H966">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-5413329.049060211</v>
       </c>
       <c r="H967">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-5451194.038060211</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-5406541.531360211</v>
       </c>
       <c r="H969">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-5446296.763760211</v>
       </c>
       <c r="H970">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-5446296.763760211</v>
       </c>
       <c r="H971">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-5409107.083360211</v>
       </c>
       <c r="H972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-5389472.098360211</v>
       </c>
       <c r="H973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-5439422.940860211</v>
       </c>
       <c r="H974">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-5393176.106660211</v>
       </c>
       <c r="H975">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-5437425.398060211</v>
       </c>
       <c r="H976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-5395581.824960211</v>
       </c>
       <c r="H977">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-5395581.824960211</v>
       </c>
       <c r="H978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-5395581.824960211</v>
       </c>
       <c r="H979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-5425236.922560211</v>
       </c>
       <c r="H980">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-5425236.922560211</v>
       </c>
       <c r="H981">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-5501160.087360212</v>
       </c>
       <c r="H982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-5417167.445560211</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-5443190.770360211</v>
       </c>
       <c r="H984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-5399121.931460211</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-5445317.210760211</v>
       </c>
       <c r="H986">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-5399149.437560211</v>
       </c>
       <c r="H987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-5440488.968060211</v>
       </c>
       <c r="H988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-5483955.056660212</v>
       </c>
       <c r="H989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-5409200.352160212</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-5453791.342460211</v>
       </c>
       <c r="H991">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-5453791.342460211</v>
       </c>
       <c r="H992">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-5502109.925060212</v>
       </c>
       <c r="H993">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-5460327.617860212</v>
       </c>
       <c r="H994">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-5460327.617860212</v>
       </c>
       <c r="H995">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-5418600.238260212</v>
       </c>
       <c r="H996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-5418600.238260212</v>
       </c>
       <c r="H997">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-5460509.652560213</v>
       </c>
       <c r="H998">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-5413909.899860213</v>
       </c>
       <c r="H999">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-5413909.899860213</v>
       </c>
       <c r="H1001">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-5454091.643360212</v>
       </c>
       <c r="H1002">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-5540665.195060216</v>
       </c>
       <c r="H1085">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-5702231.653869973</v>
       </c>
       <c r="H1127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-5774790.597169976</v>
       </c>
       <c r="H1192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-5732120.969969976</v>
       </c>
       <c r="H1193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-5751953.390269976</v>
       </c>
       <c r="H1194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-5251953.390269976</v>
       </c>
       <c r="H1195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-5295101.380169977</v>
       </c>
       <c r="H1196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-5243694.450169977</v>
       </c>
       <c r="H1197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-5199087.850369977</v>
       </c>
       <c r="H1198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-5270166.990469977</v>
       </c>
       <c r="H1199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-5204699.421869977</v>
       </c>
       <c r="H1200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-5158809.431669977</v>
       </c>
       <c r="H1201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-5178652.194669978</v>
       </c>
       <c r="H1202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 DAC ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-2075807.490399999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1812718.144299999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1867657.133499999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1830130.507799999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1702302.306799999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1555771.375299999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1555771.375299999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1583365.281999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1544062.092399999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1544062.092399999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1573134.866499999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1526542.179899999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1565377.649299999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1612195.774999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1529358.895599999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1569727.311599999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1616907.455399999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1593318.016499999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1570845.549499999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1570845.549499999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1521028.185299999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1521028.185299999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1482112.155699999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1520739.580699999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1475277.162099999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1435147.358299999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1385158.609699999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1342620.981899999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1373101.091299999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1415467.906999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1371524.989999999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1338641.831599999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1381396.068499999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1422478.987299999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1374667.130399999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1419383.436399999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1388901.015799999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1429791.534599999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1389480.672099999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1431879.278999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1563894.681499999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1609596.656099999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1575826.281799999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1531687.496899999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1482225.006699999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1525955.736399999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1481279.883999999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1481279.883999999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1526529.435599999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1572674.319399999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1530908.408899999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1567395.385799999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1592340.177599999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1636827.965299999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1604172.123199999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1604172.123199999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1564794.751699999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1602915.933199999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1602915.933199999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1602915.933199999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1643786.640399999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1603710.257199999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1639355.530499999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1602471.458199999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1602471.458199999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1640495.525399999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1680984.476599999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1633133.188699999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1680671.641399999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1730143.162199999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1730143.162199999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1687329.701699999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1677969.701699999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1695787.753199999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1732831.884699999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1662062.591199999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1757853.078599999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1801996.220699999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1759826.965599999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1759826.965599999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1805621.058899999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1767910.606899999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1725692.547099999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1748598.199299999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1687790.855299999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1712287.809099999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1657017.625699999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1728466.878599999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1772994.782499999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1753787.438199999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1801133.460399999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1838218.504199999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1838218.504199999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1796465.709499999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1819487.137899999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1774792.749799999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1807111.186899999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1850170.496999999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1921374.412299999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1956496.078099999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1920111.713699999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1955487.641199999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1920622.210999999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1920622.210999999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1880418.913299999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-2116147.947699999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2070258.445699999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2106881.714199999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2065925.373799999</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2100617.097799999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2055731.660199999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2089572.944699999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2049087.909299999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2080645.038699999</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2036862.680599999</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2072374.745699999</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2031846.069199999</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1996079.757799999</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2062444.280399999</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2101914.676299999</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-2049184.168299999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2097679.444699998</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2067294.421399998</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2088333.518799999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2043689.041799999</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1995671.907699999</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1953570.890199999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2066047.589199999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2098627.053899999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2054554.944999999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2054554.944999999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2109127.180699999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2075698.015499999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2111300.367399998</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2068521.948299998</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2022296.083199998</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2081455.080499998</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2031903.491699998</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2072396.388699998</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2036258.928799998</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2069825.552399998</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2048062.925199998</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1999327.394199998</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2035029.181499998</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1998362.455499998</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2045960.402199998</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2010182.192499998</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2051263.485999998</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2005741.451499998</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1959650.642999998</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1993080.210699998</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1954702.793099998</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1978170.036099998</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1929760.707599998</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1968775.492399998</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1940250.588599998</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2003738.268599998</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2003738.268599998</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2037703.027799998</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1969398.408599998</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2008924.279599998</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1965979.446299998</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1943428.525799998</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1903804.417499998</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1941796.615399998</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1823708.267460857</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1776121.885860857</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1810851.137760857</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1765079.848760857</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1813059.332060857</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1851279.180560857</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1851279.180560857</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1804254.705960857</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1844929.897960857</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1336057.287076848</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1297503.424576848</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1333579.203676848</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1275206.109276847</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1235817.103976847</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1273785.267076847</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1224726.964376847</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1178529.894376847</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1227008.314476847</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1150449.461176847</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1106829.648176847</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1106829.648176847</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1059469.727076847</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1104752.496476847</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1143403.147476847</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1114305.252076847</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1159514.999076847</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1210558.886376847</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1255341.238176847</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1226451.587976847</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1285329.797376847</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1238782.007176847</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1283416.440876847</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1324058.372876847</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1288859.002876847</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1337066.684176847</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1337066.684176847</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1366631.899776847</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1366631.899776847</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1300013.385576847</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1281855.988476847</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1323400.769976847</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1271068.180276847</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1225142.857676847</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1193406.700276847</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1234182.201876848</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1283508.999576848</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1312571.330976848</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1274209.554376848</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1317632.297676848</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1262155.745576848</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1228968.341276848</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1271964.345276847</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1224417.934876848</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1174230.366076848</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1240296.576476848</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1196353.309676847</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-1196353.309676847</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1237650.627876848</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1197309.428976848</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1248666.318476848</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1177248.631476848</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1221066.380376848</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1185974.507776848</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1261890.197176848</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1248257.325276848</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1198640.797276848</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1155866.050276848</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1199204.227076848</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1199204.227076848</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1236137.649676848</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1210445.491276848</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1226178.038376848</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1184705.204176848</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1142425.825676848</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1173149.357976848</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1138186.344076848</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1180791.208876848</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1225142.995176848</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1189650.779576848</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1143498.117276848</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1095027.083676848</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1130037.417176848</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1130037.417176848</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1089263.166676848</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1136112.813676848</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1058359.539276848</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1008382.151376848</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1051016.125276848</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1012975.251476848</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1012975.251476848</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1038471.807076848</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1001852.950876848</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1042777.816076848</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-999821.0758768482</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1034324.635676848</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1293318.483676848</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1339146.492176848</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1301202.559576848</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1346568.962476848</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1323053.548176848</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1334275.808376848</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1381943.478076848</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1335842.845276848</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1369110.625976848</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1328431.583876848</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1438083.818176848</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1487614.695876848</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1371574.379276848</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1421839.958076848</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1437286.966476848</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1437286.966476848</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1394027.874876848</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1357982.626776848</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1405305.848776848</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1455396.240676848</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1413942.051176848</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1456623.869676848</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1416678.879776848</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1416678.879776848</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1458335.677776848</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1458335.677776848</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1423379.409076848</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1438317.766776848</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1401200.075776848</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1358943.481276848</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1407120.979576848</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1449650.559276849</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1399980.782476848</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1443340.577776848</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1424955.777276848</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1470081.621076848</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1506963.849576848</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1467390.650076848</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1402207.976376848</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1714749.845176848</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-2017333.013576848</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2071233.077776848</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-2069263.647176848</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-2016723.114676849</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-2057137.255476848</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2012614.064176848</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2062137.910776848</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2024314.430576848</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2086312.830676848</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2045998.573076848</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-2023652.060276848</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1494216.072360216</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1624067.415360216</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1599969.990160216</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1657603.206360216</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1623286.040760216</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1672591.878460216</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1625315.144360216</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1656555.135660216</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1718488.402560216</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1694077.151060216</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1731789.863860216</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1673673.671860216</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1703144.308460216</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1763640.801760216</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1707505.090660216</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-1665336.456560216</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1613922.066460216</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1657514.936460217</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1714551.068460217</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1727134.915060217</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1731747.430760216</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1777980.342960216</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1729607.046360216</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1772876.671260216</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1732485.707560216</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1758839.234560216</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1794022.962260216</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1845457.714760216</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1793866.116060216</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1813860.930660216</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1777561.947460216</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1823599.670160216</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1773387.336860216</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1813356.709060216</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1748116.495960216</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1685428.083760216</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1726134.267060216</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1741239.827560216</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1785906.232860216</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1856604.107160216</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-1856604.107160216</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1803111.944560216</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-1770531.734660216</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1738206.395960216</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1752354.106160216</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1717284.955160216</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-1740220.160160217</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-1670116.718260216</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-1630715.726660216</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-1731409.527760216</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-1688017.131960216</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-1647221.382460216</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-1673545.096260216</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1716246.498160216</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-1735944.660560216</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-1685761.288960216</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-1751320.577960216</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-1714956.889360216</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1736433.715060216</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-1785689.670660216</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1755645.193460216</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1712869.460260216</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1733688.596660216</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1992097.531060216</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-1992097.531060216</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-1921431.660260216</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-1969985.586060216</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-1914319.645960216</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-1959646.343460216</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-1909182.201060216</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-1783945.674560216</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-1864108.916660216</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-1783518.607660216</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-1739166.380860216</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1822762.568360216</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-1778205.329360216</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-1804850.600660216</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-1513744.421060216</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-1552085.824660216</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-1529929.517960216</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1602769.606560216</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1602242.175260216</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1720602.998960216</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-1762826.591460216</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-1594153.262260216</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-1660099.519260216</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-1608112.078960216</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-1719329.298360216</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-5441432.856560215</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-5441432.856560215</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-5367517.685460215</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-5324835.526960216</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-5366289.287860216</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-5325463.954560216</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-5272785.989660216</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-5272785.989660216</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-5207190.545360216</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-5238881.688660216</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-5277781.513760216</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-5324667.023160215</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-5282798.839260216</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-5447109.996360216</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-5420158.949960216</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-5382858.944760216</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-5344157.782760217</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-5183356.975860217</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-5267537.597260216</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-5317761.855160216</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-5268813.469260216</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-5268813.469260216</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-5268813.469260216</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-5274813.469260216</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-5253813.469260216</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-5263599.539260216</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-5262731.356960216</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-5308015.927760215</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-5270741.949460216</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-5322879.548960215</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-5322879.548960215</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-5272396.385760215</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-5379183.424160215</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-5335595.432960215</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-5287799.166760215</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-5608430.726060214</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-5536214.738560215</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-5486835.306260214</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-5469407.831260215</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-5509430.271760214</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-5465334.381760214</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-5417364.722760214</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-5458394.075460214</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-5414801.433660214</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-5467811.640560213</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-5447589.845960214</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-5484646.724960214</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-5526027.175160213</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-5567527.183360213</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-5567527.183360213</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-5526748.071660213</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-5526748.071660213</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-5526748.071660213</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-5507314.055660213</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-5507314.055660213</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-5557786.576260214</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-5557786.576260214</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-5513559.260660213</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-5561727.549760213</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-5561727.549760213</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-5487180.289560213</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-5573306.077060212</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-5495928.993960212</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-5577461.922960212</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-5517773.623160212</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-5553550.408760212</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-5507656.430560213</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-5550008.433460212</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-5514471.011260212</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-5562624.923360213</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-5600322.069360212</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-5580112.188560212</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-5661922.245160212</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-5687832.074660212</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-5644697.114760212</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-5623846.762860212</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-5640568.092860212</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-5640568.092860212</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-5706465.114760212</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-5706465.114760212</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-5384773.266360212</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-5350433.732460212</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-5373353.699260212</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-5373353.699260212</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-5395187.183560211</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-5395187.183560211</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-5440824.732060211</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-5416375.873960211</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-5377865.814060211</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-5416879.530560211</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-5416879.530560211</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-5378781.905260211</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-5413329.049060211</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-5451194.038060211</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-5406541.531360211</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-5446296.763760211</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-5446296.763760211</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-5409107.083360211</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-5389472.098360211</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-5439422.940860211</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-5393176.106660211</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-5437425.398060211</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-5395581.824960211</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-5395581.824960211</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-5395581.824960211</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-5425236.922560211</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-5425236.922560211</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-5501160.087360212</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-5417167.445560211</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-5443190.770360211</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-5399121.931460211</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-5445317.210760211</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-5399149.437560211</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-5440488.968060211</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-5483955.056660212</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-5409200.352160212</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-5453791.342460211</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-5453791.342460211</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-5502109.925060212</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-5460327.617860212</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-5460327.617860212</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-5418600.238260212</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-5418600.238260212</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-5460509.652560213</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-5413909.899860213</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-5413909.899860213</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-5454091.643360212</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-5540665.195060216</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-5702231.653869973</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-5774790.597169976</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-5732120.969969976</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-5751953.390269976</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-5251953.390269976</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-5295101.380169977</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-5243694.450169977</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-5199087.850369977</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-5270166.990469977</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-5204699.421869977</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-5158809.431669977</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-5178652.194669978</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
